--- a/Win32/Binaries/Table/event.xlsx
+++ b/Win32/Binaries/Table/event.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="158">
   <si>
     <t>类型ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,10 +158,6 @@
   </si>
   <si>
     <t>累计进行N次伶人招募</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计进行N次戏班招募</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -619,6 +615,26 @@
   </si>
   <si>
     <t>2开头的条件为成就条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行N次任意形式的戏班签到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在美食屋进行N次烹饪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含所有的戏班签到形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行1次烹饪计数1，必须有食材（食材数量&gt;0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计进行N次戏班招募（10连算1次）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1117,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B49" sqref="B35:B49"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1157,10 +1173,10 @@
         <v>2001</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1168,10 +1184,10 @@
         <v>2002</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -1179,10 +1195,10 @@
         <v>2003</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -1190,10 +1206,10 @@
         <v>2004</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -1201,10 +1217,10 @@
         <v>2005</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -1212,10 +1228,10 @@
         <v>2006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -1223,7 +1239,7 @@
         <v>2007</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>22</v>
@@ -1234,7 +1250,7 @@
         <v>2008</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>23</v>
@@ -1245,7 +1261,7 @@
         <v>2009</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>24</v>
@@ -1256,10 +1272,10 @@
         <v>2010</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -1267,10 +1283,10 @@
         <v>2011</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -1278,7 +1294,7 @@
         <v>2012</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>25</v>
@@ -1289,10 +1305,10 @@
         <v>2013</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -1300,10 +1316,10 @@
         <v>2014</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -1311,10 +1327,10 @@
         <v>2015</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -1322,10 +1338,10 @@
         <v>2016</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -1333,7 +1349,7 @@
         <v>2017</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>26</v>
@@ -1344,7 +1360,7 @@
         <v>2018</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>27</v>
@@ -1355,7 +1371,7 @@
         <v>2019</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>28</v>
@@ -1366,7 +1382,7 @@
         <v>2020</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>29</v>
@@ -1377,7 +1393,7 @@
         <v>2021</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>30</v>
@@ -1388,7 +1404,7 @@
         <v>2022</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>31</v>
@@ -1399,7 +1415,7 @@
         <v>2023</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>32</v>
@@ -1410,7 +1426,7 @@
         <v>2024</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>33</v>
@@ -1421,7 +1437,7 @@
         <v>2025</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>34</v>
@@ -1432,10 +1448,10 @@
         <v>2026</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -1443,10 +1459,10 @@
         <v>2027</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -1454,10 +1470,10 @@
         <v>2028</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -1465,7 +1481,7 @@
         <v>2029</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>35</v>
@@ -1476,10 +1492,10 @@
         <v>2030</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -1487,10 +1503,10 @@
         <v>2031</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -1498,10 +1514,10 @@
         <v>2032</v>
       </c>
       <c r="B34" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="27" x14ac:dyDescent="0.15">
@@ -1509,10 +1525,10 @@
         <v>1001</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -1520,10 +1536,10 @@
         <v>1002</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -1531,10 +1547,10 @@
         <v>1003</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -1542,10 +1558,10 @@
         <v>1004</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -1553,10 +1569,10 @@
         <v>1005</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -1564,10 +1580,10 @@
         <v>1006</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -1575,10 +1591,10 @@
         <v>1007</v>
       </c>
       <c r="B41" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -1586,10 +1602,10 @@
         <v>1008</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -1597,10 +1613,10 @@
         <v>1009</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -1608,10 +1624,10 @@
         <v>1010</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -1619,10 +1635,10 @@
         <v>1011</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -1630,10 +1646,10 @@
         <v>1012</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -1641,10 +1657,10 @@
         <v>1013</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -1652,7 +1668,7 @@
         <v>1014</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C48" s="12"/>
     </row>
@@ -1661,7 +1677,7 @@
         <v>1015</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C49" s="12"/>
     </row>
@@ -1670,10 +1686,10 @@
         <v>3001</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -1681,10 +1697,10 @@
         <v>3002</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -1692,10 +1708,10 @@
         <v>3003</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -1703,10 +1719,10 @@
         <v>3004</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -1714,7 +1730,7 @@
         <v>3005</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C54" s="12"/>
     </row>
@@ -1723,10 +1739,10 @@
         <v>3006</v>
       </c>
       <c r="B55" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -1734,10 +1750,10 @@
         <v>3007</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -1745,7 +1761,7 @@
         <v>3008</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C57" s="12"/>
     </row>
@@ -1754,10 +1770,10 @@
         <v>3009</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -1765,7 +1781,7 @@
         <v>3010</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C59" s="12"/>
     </row>
@@ -1774,10 +1790,10 @@
         <v>3011</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -1785,10 +1801,10 @@
         <v>3012</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -1796,10 +1812,10 @@
         <v>3013</v>
       </c>
       <c r="B62" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -1807,10 +1823,10 @@
         <v>3014</v>
       </c>
       <c r="B63" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -1818,10 +1834,10 @@
         <v>3015</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -1829,10 +1845,10 @@
         <v>3016</v>
       </c>
       <c r="B65" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -1840,10 +1856,10 @@
         <v>3017</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -1851,10 +1867,10 @@
         <v>3018</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -1862,10 +1878,10 @@
         <v>3019</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -1873,7 +1889,7 @@
         <v>3020</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C69" s="12"/>
     </row>
@@ -1882,10 +1898,32 @@
         <v>3021</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="9">
+        <v>1016</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="9">
+        <v>1017</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1899,7 +1937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1942,7 +1980,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1956,7 +1994,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1970,7 +2008,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -2027,32 +2065,32 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="81" x14ac:dyDescent="0.15">
       <c r="B19" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
